--- a/ERP/Diseño/UC/Avance.xlsx
+++ b/ERP/Diseño/UC/Avance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Compras</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Modificar transacciones</t>
+  </si>
+  <si>
+    <t>Abano apartado</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G62"/>
+  <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -642,12 +645,12 @@
         <v>19</v>
       </c>
       <c r="E3" s="6">
-        <f>57-9</f>
-        <v>48</v>
+        <f>58-9</f>
+        <v>49</v>
       </c>
       <c r="F3" s="7">
-        <f>COUNTIF(C1:C57,C3)</f>
-        <v>34</v>
+        <f>COUNTIF(C1:C58,C3)</f>
+        <v>35</v>
       </c>
       <c r="G3" s="7">
         <f>E3-F3</f>
@@ -666,11 +669,11 @@
       </c>
       <c r="F4" s="8">
         <f>F3/E3</f>
-        <v>0.70833333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G4" s="8">
         <f>E4-F4</f>
-        <v>0.29166666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
@@ -814,51 +817,51 @@
       <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row r="27" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B28" s="10" t="s">
+      <c r="C28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B30" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>19</v>
@@ -866,29 +869,29 @@
     </row>
     <row r="31" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B34" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>19</v>
@@ -896,29 +899,29 @@
     </row>
     <row r="35" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B36" s="10" t="s">
+      <c r="C36" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B37" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>19</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B39" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>19</v>
@@ -934,7 +937,7 @@
     </row>
     <row r="40" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B40" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>19</v>
@@ -942,29 +945,29 @@
     </row>
     <row r="41" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B44" s="9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>19</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>19</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="46" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>19</v>
@@ -988,78 +991,83 @@
     </row>
     <row r="47" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B49" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B49" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B50" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B51" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B52" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="B55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B56" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="2:3" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B57" s="9" t="s">
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B58" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="C58" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15.75" customHeight="1">
       <c r="B59" s="1"/>
     </row>
     <row r="60" spans="2:3">
@@ -1070,6 +1078,9 @@
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
